--- a/medicine/Enfance/Kenneth_Grahame/Kenneth_Grahame.xlsx
+++ b/medicine/Enfance/Kenneth_Grahame/Kenneth_Grahame.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kenneth Grahame, né le 8 mars 1859 à Édimbourg (Écosse) et mort le 6 juillet 1932 à Pangbourne, dans le comté de Berkshire (Angleterre), est un romancier britannique.
 Il est principalement connu pour son roman Le Vent dans les saules (The Wind in the Willows, 1908), un classique de la littérature britannique pour enfants, écrit à l'origine pour son fils qui partageait l'entêtement d'un des personnages du roman : Crapaud, Baron Tétard (Toad of Toad Hall). L'illustrateur le plus célèbre du roman est Ernest Howard Shepard. 
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Devenu orphelin, Grahame part vivre avec sa grand-mère. Il fait ses études au St Edward's School (en) d'Oxford, mais ne parvient pas à entrer à l'université. 
 Il travaille à la Banque d'Angleterre jusqu'à sa retraite en 1907. Son poste lui laisse le temps de débuter dans le journalisme, puis d'écrire des nouvelles. Il publie Pagan Papers (1893), puis The Golden Age (1895), le recueil de nouvelle Dream Days (1898), qui contient la nouvelle Le Dragon récalcitrant (The Reluctant Dragon). Après la parution du Vent des saules en 1908, Grahame cesse de publier. Une courte nouvelle posthume, intitulée Bertie's Escapade, paraît en 1949.
@@ -544,7 +558,9 @@
           <t>Exploitation de son œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Walt Disney Company s'est inspiré de son œuvre principale pour réaliser :
 une section du film d'animation, Le Crapaud et le Maître d'école, baptisée La Mare aux grenouilles
